--- a/Config/Excel/Datas/GameConfig/TaskActionConfig.xlsx
+++ b/Config/Excel/Datas/GameConfig/TaskActionConfig.xlsx
@@ -38,27 +38,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>##var</t>
   </si>
   <si>
-    <t>id</t>
+    <t>target_type</t>
   </si>
   <si>
     <t>#task_name</t>
   </si>
   <si>
-    <t>task_process_action</t>
+    <t>process_action</t>
   </si>
   <si>
     <t>##type</t>
   </si>
   <si>
-    <t>int</t>
+    <t>TaskTargetType</t>
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>TaskProgressType</t>
   </si>
   <si>
     <t>##group</t>
@@ -81,48 +84,25 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>任务进度更新行为</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>升级</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>打造</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>冒险</t>
-    </r>
+    <t>任务进度更新行为</t>
+  </si>
+  <si>
+    <t>Kill</t>
+  </si>
+  <si>
+    <t>Add</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>Dialogue</t>
+  </si>
+  <si>
+    <t>UpLevel</t>
   </si>
 </sst>
 </file>
@@ -152,6 +132,12 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="JetBrains Mono"/>
       <charset val="134"/>
     </font>
@@ -298,12 +284,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -614,51 +594,48 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -668,94 +645,97 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -764,10 +744,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -894,13 +874,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:D7" totalsRowShown="0">
-  <autoFilter ref="A1:D7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:D8" totalsRowShown="0">
+  <autoFilter ref="A1:D8"/>
   <tableColumns count="4">
     <tableColumn id="1" name="##var" dataDxfId="0"/>
-    <tableColumn id="2" name="id" dataDxfId="1"/>
+    <tableColumn id="2" name="target_type" dataDxfId="1"/>
     <tableColumn id="3" name="#task_name" dataDxfId="2"/>
-    <tableColumn id="4" name="task_process_action" dataDxfId="3"/>
+    <tableColumn id="4" name="process_action" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1193,200 +1173,105 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="11.1111111111111" style="2" customWidth="1"/>
-    <col min="2" max="2" width="5.66666666666667" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.6666666666667" style="2" customWidth="1"/>
-    <col min="4" max="4" width="29.1111111111111" style="2" customWidth="1"/>
-    <col min="5" max="5" width="23.5" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="11.1111111111111" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6666666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6666666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.1111111111111" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
+      <c r="A3" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" ht="17.4" spans="1:4">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" ht="17.4" spans="2:4">
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2">
-        <v>3</v>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="17.4" spans="2:4">
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
+    <row r="6" s="1" customFormat="1" spans="2:4">
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="17.4" spans="2:4">
-      <c r="B7" s="1">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
+    <row r="7" s="1" customFormat="1" spans="2:4">
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="16" spans="2:6">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="2:6">
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
+    <row r="8" s="1" customFormat="1" spans="1:4">
+      <c r="A8" s="3"/>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
